--- a/emarket/samples/reference-tables/Price.xlsx
+++ b/emarket/samples/reference-tables/Price.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="173">
   <si>
     <t>id</t>
   </si>
@@ -437,16 +437,16 @@
     <t>publicKey2</t>
   </si>
   <si>
-    <t>Артикул</t>
-  </si>
-  <si>
-    <t>Автор</t>
+    <t>Артикл</t>
+  </si>
+  <si>
+    <t>Автор:</t>
   </si>
   <si>
     <t>Цена $</t>
   </si>
   <si>
-    <t>Товар</t>
+    <t>Товар:</t>
   </si>
   <si>
     <t>Краткое описание</t>
@@ -455,13 +455,13 @@
     <t>Описание</t>
   </si>
   <si>
-    <t>Уровень</t>
-  </si>
-  <si>
-    <t>Язык</t>
-  </si>
-  <si>
-    <t>Высота</t>
+    <t>Уровень:</t>
+  </si>
+  <si>
+    <t>Язык:</t>
+  </si>
+  <si>
+    <t>Высота:</t>
   </si>
   <si>
     <t>Ширина</t>
@@ -484,6 +484,9 @@
     <t>white:(255, 255, 255);black:(0, 0, 0);blue:(0, 0, 255);green:(0, 255, 0);red: (255, 0, 0)</t>
   </si>
   <si>
+    <t>Высота</t>
+  </si>
+  <si>
     <t>Вес</t>
   </si>
   <si>
@@ -514,13 +517,16 @@
     <t>https://script.google.com/macros/s/AKfycbybvuGbsK7-2Wa8PFYurOjt7R6a4wq3NnzqAcMn6tLLGBIxpa6o_KUkVLXX5SDkG7P4ng/exec</t>
   </si>
   <si>
-    <t>fd</t>
-  </si>
-  <si>
-    <t>pricefromprice</t>
-  </si>
-  <si>
-    <t>gfgfgf</t>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPChFDERXvltJPpeHnmyLCM7ni-6GzZ4BSaQiegY2sZ8zf7_B__Bnw6afEjlpT4X13fjKBorMOa5waAYhMcIqPrYfGxzdk25OlpotzRM7jNj_1MKA=w2400</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>additional price list</t>
+  </si>
+  <si>
+    <t>Sun</t>
   </si>
   <si>
     <t>d566667</t>
@@ -536,7 +542,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -545,6 +551,10 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FFFFF2CC"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -613,6 +623,14 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -664,7 +682,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -686,22 +704,25 @@
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -710,53 +731,60 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="5" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="5" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1022,7 +1050,7 @@
       <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
@@ -1046,7 +1074,7 @@
       <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="8" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="5" t="s">
@@ -1061,10 +1089,10 @@
       <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="8" t="s">
         <v>27</v>
       </c>
       <c r="AC1" s="5" t="s">
@@ -1103,10 +1131,10 @@
       <c r="I2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="9">
         <v>3.0</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>38</v>
       </c>
       <c r="L2" s="5" t="s">
@@ -1120,7 +1148,7 @@
         <v>40</v>
       </c>
       <c r="P2" s="5"/>
-      <c r="Q2" s="8">
+      <c r="Q2" s="9">
         <v>36.0</v>
       </c>
       <c r="R2" s="5" t="s">
@@ -1132,27 +1160,27 @@
       <c r="T2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="10"/>
+      <c r="V2" s="11"/>
       <c r="W2" s="5" t="s">
         <v>45</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="Y2" s="9">
         <v>45.0</v>
       </c>
       <c r="Z2" s="5"/>
-      <c r="AA2" s="7" t="s">
+      <c r="AA2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AB2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AC2" s="11">
+      <c r="AC2" s="12">
         <v>3.0</v>
       </c>
       <c r="AD2" s="5"/>
@@ -1185,7 +1213,7 @@
       <c r="J3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>38</v>
       </c>
       <c r="L3" s="5" t="s">
@@ -1199,7 +1227,7 @@
         <v>57</v>
       </c>
       <c r="P3" s="5"/>
-      <c r="Q3" s="8">
+      <c r="Q3" s="9">
         <v>46.0</v>
       </c>
       <c r="R3" s="5" t="s">
@@ -1211,10 +1239,10 @@
       <c r="T3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="U3" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="V3" s="12"/>
+      <c r="V3" s="13"/>
       <c r="W3" s="5" t="s">
         <v>60</v>
       </c>
@@ -1227,10 +1255,10 @@
       <c r="Z3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AA3" s="7">
+      <c r="AA3" s="8">
         <v>6.0</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AB3" s="8" t="s">
         <v>62</v>
       </c>
       <c r="AC3" s="5"/>
@@ -1248,11 +1276,11 @@
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="2" t="s">
         <v>51</v>
       </c>
@@ -1265,10 +1293,10 @@
       <c r="I4" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="9">
         <v>88888.0</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>38</v>
       </c>
       <c r="L4" s="5"/>
@@ -1284,25 +1312,25 @@
         <v>58</v>
       </c>
       <c r="T4" s="5"/>
-      <c r="U4" s="15" t="s">
+      <c r="U4" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="15"/>
-      <c r="W4" s="7">
+      <c r="V4" s="16"/>
+      <c r="W4" s="8">
         <v>44.0</v>
       </c>
-      <c r="X4" s="7" t="s">
+      <c r="X4" s="8" t="s">
         <v>67</v>
       </c>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
-      <c r="AA4" s="7" t="s">
+      <c r="AA4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AB4" s="7" t="s">
+      <c r="AB4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="AC4" s="8">
+      <c r="AC4" s="9">
         <v>10.0</v>
       </c>
       <c r="AD4" s="5"/>
@@ -1317,13 +1345,13 @@
       <c r="B5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="13"/>
       <c r="F5" s="2" t="s">
         <v>73</v>
       </c>
@@ -1335,7 +1363,7 @@
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>76</v>
       </c>
       <c r="L5" s="5"/>
@@ -1351,33 +1379,33 @@
       <c r="P5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="9">
         <v>55.0</v>
       </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
-      <c r="U5" s="16" t="s">
+      <c r="U5" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="V5" s="16"/>
-      <c r="W5" s="7">
+      <c r="V5" s="17"/>
+      <c r="W5" s="8">
         <v>55.0</v>
       </c>
-      <c r="X5" s="7" t="s">
+      <c r="X5" s="8" t="s">
         <v>80</v>
       </c>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="AA5" s="7" t="s">
+      <c r="AA5" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="AB5" s="7">
+      <c r="AB5" s="8">
         <v>76.0</v>
       </c>
-      <c r="AC5" s="7">
+      <c r="AC5" s="8">
         <v>19.0</v>
       </c>
       <c r="AD5" s="5"/>
@@ -1386,59 +1414,59 @@
       <c r="AG5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20" t="s">
+      <c r="D6" s="18"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="P6" s="22" t="s">
+      <c r="P6" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="Q6" s="22">
+      <c r="Q6" s="23">
         <v>55.0</v>
       </c>
-      <c r="U6" s="17"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="21">
+      <c r="U6" s="18"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="22">
         <v>55.0</v>
       </c>
-      <c r="X6" s="21" t="s">
+      <c r="X6" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="Z6" s="22" t="s">
+      <c r="Z6" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="AA6" s="21" t="s">
+      <c r="AA6" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="AB6" s="21">
+      <c r="AB6" s="22">
         <v>76.0</v>
       </c>
-      <c r="AC6" s="21">
+      <c r="AC6" s="22">
         <v>19.0</v>
       </c>
       <c r="AD6" s="5"/>
@@ -1447,47 +1475,47 @@
       <c r="AG6" s="5"/>
     </row>
     <row r="7">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="F7" s="21" t="s">
+      <c r="D7" s="21"/>
+      <c r="F7" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="O7" s="23" t="s">
+      <c r="O7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="17" t="s">
+      <c r="Q7" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="R7" s="17" t="s">
+      <c r="R7" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="S7" s="21" t="s">
+      <c r="S7" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="U7" s="21" t="s">
+      <c r="U7" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="V7" s="21" t="s">
+      <c r="V7" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="AC7" s="21">
+      <c r="AC7" s="22">
         <v>2.0</v>
       </c>
       <c r="AD7" s="5"/>
@@ -1496,42 +1524,42 @@
       <c r="AG7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="F8" s="21" t="s">
+      <c r="D8" s="21"/>
+      <c r="F8" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="L8" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="O8" s="21" t="s">
+      <c r="O8" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="Q8" s="17" t="s">
+      <c r="Q8" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="R8" s="17" t="s">
+      <c r="R8" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="S8" s="21" t="s">
+      <c r="S8" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="U8" s="20"/>
-      <c r="V8" s="21" t="s">
+      <c r="U8" s="21"/>
+      <c r="V8" s="22" t="s">
         <v>95</v>
       </c>
       <c r="AD8" s="5" t="s">
@@ -1542,52 +1570,52 @@
       <c r="AG8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="22">
         <v>150.0</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="O9" s="20" t="s">
+      <c r="O9" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="P9" s="21">
+      <c r="P9" s="22">
         <v>100.0</v>
       </c>
       <c r="S9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="U9" s="25" t="s">
+      <c r="U9" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="W9" s="21" t="s">
+      <c r="W9" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="X9" s="26" t="s">
+      <c r="X9" s="27" t="s">
         <v>106</v>
       </c>
       <c r="AD9" s="5"/>
@@ -1596,47 +1624,47 @@
       <c r="AG9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="F10" s="21" t="s">
+      <c r="D10" s="29"/>
+      <c r="F10" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="I10" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="L10" s="22" t="s">
         <v>114</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Q10" s="21" t="s">
+      <c r="Q10" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="R10" s="21" t="s">
+      <c r="R10" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="U10" s="29" t="s">
+      <c r="U10" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="AC10" s="21">
+      <c r="AC10" s="22">
         <v>5.0</v>
       </c>
       <c r="AD10" s="5"/>
@@ -1645,44 +1673,44 @@
       <c r="AG10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="22">
         <v>26.0</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="H11" s="27" t="s">
+      <c r="D11" s="29"/>
+      <c r="H11" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="L11" s="21" t="s">
+      <c r="L11" s="22" t="s">
         <v>114</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Q11" s="21" t="s">
+      <c r="Q11" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="R11" s="21" t="s">
+      <c r="R11" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="U11" s="29" t="s">
+      <c r="U11" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="AC11" s="21">
+      <c r="AC11" s="22">
         <v>5.0</v>
       </c>
       <c r="AD11" s="5"/>
@@ -1691,29 +1719,29 @@
       <c r="AG11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="22">
         <v>44.0</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="F12" s="24" t="s">
+      <c r="D12" s="21"/>
+      <c r="F12" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="K12" s="24" t="s">
+      <c r="K12" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="L12" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="Q12" s="21">
+      <c r="Q12" s="22">
         <v>22.0</v>
       </c>
-      <c r="U12" s="29" t="s">
+      <c r="U12" s="30" t="s">
         <v>123</v>
       </c>
       <c r="AD12" s="5"/>
@@ -1728,6 +1756,7 @@
       <c r="AG13" s="5"/>
     </row>
     <row r="14">
+      <c r="M14" s="31"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
@@ -7707,10 +7736,10 @@
       <c r="I1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>125</v>
       </c>
       <c r="L1" s="5" t="s">
@@ -7734,13 +7763,13 @@
       <c r="R1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="8" t="s">
         <v>126</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="U1" s="32" t="s">
         <v>19</v>
       </c>
       <c r="V1" s="5" t="s">
@@ -7758,10 +7787,10 @@
       <c r="Z1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="8" t="s">
         <v>27</v>
       </c>
       <c r="AC1" s="5" t="s">
@@ -7770,169 +7799,175 @@
       <c r="AD1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="31" t="s">
+      <c r="AE1" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="AF1" s="21" t="s">
+      <c r="AF1" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="AG1" s="21" t="s">
+      <c r="AG1" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="AH1" s="21" t="s">
+      <c r="AH1" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" s="21" t="s">
+      <c r="AI1" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="AJ1" s="21" t="s">
+      <c r="AJ1" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="AK1" s="21" t="s">
+      <c r="AK1" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="AL1" s="21" t="s">
+      <c r="AL1" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="AM1" s="21" t="s">
+      <c r="AM1" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="AN1" s="21" t="s">
+      <c r="AN1" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="AO1" s="21" t="s">
+      <c r="AO1" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="AP1" s="32" t="s">
+      <c r="AP1" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="AQ1" s="32" t="s">
+      <c r="AQ1" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="AR1" s="32" t="s">
+      <c r="AR1" s="34" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="R2" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="S2" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="U2" s="21" t="s">
+      <c r="U2" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="W2" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="X2" s="21" t="s">
+      <c r="W2" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="X2" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="Y2" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z2" s="21" t="s">
+      <c r="Y2" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="AA2" s="21" t="s">
+      <c r="Z2" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="AB2" s="21" t="s">
+      <c r="AA2" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="AE2" s="21" t="s">
+      <c r="AB2" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="AF2" s="21" t="s">
+      <c r="AE2" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="AG2" s="21" t="s">
+      <c r="AF2" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="AH2" s="21" t="s">
+      <c r="AG2" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="AI2" s="21" t="s">
+      <c r="AH2" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="AJ2" s="33" t="s">
+      <c r="AI2" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21" t="s">
+      <c r="AJ2" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="AM2" s="21" t="s">
+      <c r="AK2" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21" t="s">
+      <c r="AL2" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="AP2" s="21" t="s">
+      <c r="AM2" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="AQ2" s="21" t="s">
+      <c r="AN2" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO2" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="AR2" s="21" t="s">
+      <c r="AP2" s="22" t="s">
         <v>170</v>
       </c>
+      <c r="AQ2" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="AR2" s="22" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="3">
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="31"/>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="31"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="33"/>
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="33"/>
+      <c r="AN3" s="33"/>
+      <c r="AO3" s="33"/>
+      <c r="AP3" s="33"/>
+      <c r="AQ3" s="33"/>
+      <c r="AR3" s="33"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="AJ2"/>
+    <hyperlink r:id="rId2" ref="AK2"/>
+    <hyperlink r:id="rId3" ref="AN2"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/emarket/samples/reference-tables/Price.xlsx
+++ b/emarket/samples/reference-tables/Price.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="185">
   <si>
     <t>id</t>
   </si>
@@ -113,10 +113,10 @@
     <t>10.25</t>
   </si>
   <si>
-    <t>https://courses.prometheus.org.ua/asset-v1:Ciklum+FEB101+2022_T3+type@asset+block@javascript_the_definitive_guide.jpg</t>
-  </si>
-  <si>
-    <t>JavaScript: The Definitive Guide, 7th Edition</t>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPPaIlhNtuxnkh_nk-0PteuYFitkPBOnhtbI3epsd1eWNhh1r-iplXKR6LMJTgFsX1AeEFQqctU8l4dooSWDZ_Pu_kLgmJ8BtubxcLq922n_r5U5A=w2400</t>
+  </si>
+  <si>
+    <t>Programming books</t>
   </si>
   <si>
     <t>JavaScript is the programming language of the web and is used by more software developers today than any other programming language.</t>
@@ -146,7 +146,7 @@
     <t>1:black,2:white</t>
   </si>
   <si>
-    <t>https://courses.prometheus.org.ua/asset-v1:Ciklum+FEB101+2022_T3+type@asset+block@javascript_the_definitive_guide.jpg,https://courses.prometheus.org.ua/asset-v1:Ciklum+FEB101+2022_T3+type@asset+block@learning_test_driven_development.jpg</t>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPPaIlhNtuxnkh_nk-0PteuYFitkPBOnhtbI3epsd1eWNhh1r-iplXKR6LMJTgFsX1AeEFQqctU8l4dooSWDZ_Pu_kLgmJ8BtubxcLq922n_r5U5A=w2400,https://lh3.googleusercontent.com/pw/AP1GczNpqDFlKwwyxZv9UiNRQN3OcURWcOCbR2bFT-O5RU0afCQSYlVHZuTrbiHernZWdZlEFb5R0q9Osg0VpDcdowDhXFM1f0P8yyOpGHM6oCG0iupbZQ=w2400</t>
   </si>
   <si>
     <t>fgf</t>
@@ -167,9 +167,6 @@
     <t>25.44</t>
   </si>
   <si>
-    <t>Java2Script: The Definitive Guide, 7th Edition</t>
-  </si>
-  <si>
     <t>J2avaScript is the programming language of the web and is used by more software developers today than any other programming language.</t>
   </si>
   <si>
@@ -191,7 +188,7 @@
     <t>white</t>
   </si>
   <si>
-    <t>https://courses.prometheus.org.ua/asset-v1:Ciklum+FEB101+2022_T3+type@asset+block@learning_test_driven_development.jpg</t>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMz0opkwDh1y34732G4HhP-jtP68O46CFuyeOAM_oiMxHUY7tlYUpdLAfdVPIETa2pQWJA1EDLwIx-7zynHE-tiMFb7fLCXWjZIKvxLcH_7IOIFbw=w2400</t>
   </si>
   <si>
     <t>fgfg</t>
@@ -212,6 +209,12 @@
     <t>25.45</t>
   </si>
   <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMbJUMTPYOX2Ah173KTDUaJBZIyyPRaCRPHQzkTWEBxEKY-mJRsm2vHZg4EvjKTX0D5smUoa_mCWPNyh6NB4HFT9iHs7Sz6p1SlnL7zXzphsJCjnA=w2400</t>
+  </si>
+  <si>
+    <t>Cook book</t>
+  </si>
+  <si>
     <t>ghgg</t>
   </si>
   <si>
@@ -236,9 +239,6 @@
     <t>jhhjh</t>
   </si>
   <si>
-    <t>gfd</t>
-  </si>
-  <si>
     <t>fgfdgd</t>
   </si>
   <si>
@@ -266,6 +266,12 @@
     <t>David Flanagan2</t>
   </si>
   <si>
+    <t>bookreact.jpg</t>
+  </si>
+  <si>
+    <t>bookreact.jpg,bookreact2.jpg</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
@@ -287,18 +293,18 @@
     <t>6:34,7:36</t>
   </si>
   <si>
+    <t>cwomenshoesred.jpg,cwomenshoesred2.jpg</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
     <t>red</t>
   </si>
   <si>
-    <t>cwomenshoesred.jpg,cwomenshoesred2.jpg</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
     <t>cwomenshoesred2.jpg</t>
   </si>
   <si>
@@ -344,21 +350,21 @@
     <t>15.56</t>
   </si>
   <si>
+    <t>pizza</t>
+  </si>
+  <si>
+    <t>Pizza is a beloved dish that originated in Italy but has become popular worldwide. It consists of a thin or thick crust topped with various ingredients, typically including tomato sauce, cheese, and a variety of toppings. Whether enjoyed as a quick snack, a family meal, or at a social gathering, pizza is a universal favorite.</t>
+  </si>
+  <si>
+    <t>omato-based sauce</t>
+  </si>
+  <si>
+    <t>Mozzarella</t>
+  </si>
+  <si>
     <t>food</t>
   </si>
   <si>
-    <t>Pizza is a beloved dish that originated in Italy but has become popular worldwide. It consists of a thin or thick crust topped with various ingredients, typically including tomato sauce, cheese, and a variety of toppings. Whether enjoyed as a quick snack, a family meal, or at a social gathering, pizza is a universal favorite.</t>
-  </si>
-  <si>
-    <t>omato-based sauce</t>
-  </si>
-  <si>
-    <t>Mozzarella</t>
-  </si>
-  <si>
-    <t>pizza</t>
-  </si>
-  <si>
     <t>14 inches</t>
   </si>
   <si>
@@ -377,7 +383,7 @@
     <t>11</t>
   </si>
   <si>
-    <t>Foot</t>
+    <t>Shoes</t>
   </si>
   <si>
     <t>children's shoes</t>
@@ -386,6 +392,30 @@
     <t>https://lh3.googleusercontent.com/pw/AP1GczOndj66CgQrW-RXbSRf7VgJe2A_Sae7eCqxWlSZEBFtpUpaQZScYgpf-SwIA0vlEgs4FtP2etmyHXQOYQpsERWRlEbi7DKL8vC9AvU5NEYzFA0iIg=w2400</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>sneakerswhite.jpg</t>
+  </si>
+  <si>
+    <t>12:white,13:black</t>
+  </si>
+  <si>
+    <t>sneakerswhite.jpg,sneakerswhite2.jpg</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>13:44,14:33</t>
+  </si>
+  <si>
+    <t>sneakersblack.jpg</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>#tag1</t>
   </si>
   <si>
@@ -443,7 +473,7 @@
     <t>Автор:</t>
   </si>
   <si>
-    <t>Цена $</t>
+    <t>Цена $:</t>
   </si>
   <si>
     <t>Товар:</t>
@@ -464,7 +494,7 @@
     <t>Высота:</t>
   </si>
   <si>
-    <t>Ширина</t>
+    <t>Ширина:</t>
   </si>
   <si>
     <t>Размер:</t>
@@ -487,6 +517,9 @@
     <t>Высота</t>
   </si>
   <si>
+    <t>Ширина</t>
+  </si>
+  <si>
     <t>Вес</t>
   </si>
   <si>
@@ -511,7 +544,7 @@
     <t>Подробнее</t>
   </si>
   <si>
-    <t>Итого</t>
+    <t>Итого:</t>
   </si>
   <si>
     <t>https://script.google.com/macros/s/AKfycbybvuGbsK7-2Wa8PFYurOjt7R6a4wq3NnzqAcMn6tLLGBIxpa6o_KUkVLXX5SDkG7P4ng/exec</t>
@@ -524,6 +557,9 @@
   </si>
   <si>
     <t>additional price list</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPFFvbh20Vo8zTeQ3hl58qwrn6Td63zWcJMfMoG6HnT-Ciu8L8Sgxp3AJsG_1oxzyooSFmQoBmZwNCwZ1H8xu7mdmg--XflKFOoaEOD-OiG0aUUGA=w2400</t>
   </si>
   <si>
     <t>Sun</t>
@@ -542,7 +578,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -570,8 +606,19 @@
     <font>
       <u/>
       <sz val="9.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="&quot;Google Sans&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.0"/>
       <color rgb="FF1155CC"/>
       <name val="&quot;Google Sans&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -682,7 +729,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -710,11 +757,11 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
@@ -723,6 +770,9 @@
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -731,58 +781,61 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="5" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="5" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1115,11 +1168,11 @@
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1131,7 +1184,7 @@
       <c r="I2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="10">
         <v>3.0</v>
       </c>
       <c r="K2" s="8" t="s">
@@ -1148,7 +1201,7 @@
         <v>40</v>
       </c>
       <c r="P2" s="5"/>
-      <c r="Q2" s="9">
+      <c r="Q2" s="10">
         <v>36.0</v>
       </c>
       <c r="R2" s="5" t="s">
@@ -1160,7 +1213,7 @@
       <c r="T2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="U2" s="9" t="s">
         <v>44</v>
       </c>
       <c r="V2" s="11"/>
@@ -1170,7 +1223,7 @@
       <c r="X2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="Y2" s="9">
+      <c r="Y2" s="10">
         <v>45.0</v>
       </c>
       <c r="Z2" s="5"/>
@@ -1198,59 +1251,59 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>38</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P3" s="5"/>
-      <c r="Q3" s="9">
+      <c r="Q3" s="10">
         <v>46.0</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>41</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T3" s="5" t="s">
         <v>43</v>
       </c>
       <c r="U3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="V3" s="14"/>
+      <c r="W3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="V3" s="13"/>
-      <c r="W3" s="5" t="s">
+      <c r="X3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="X3" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="Y3" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Z3" s="5" t="s">
         <v>45</v>
@@ -1259,11 +1312,11 @@
         <v>6.0</v>
       </c>
       <c r="AB3" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
@@ -1271,29 +1324,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="I4" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" s="9">
+        <v>67</v>
+      </c>
+      <c r="J4" s="10">
         <v>88888.0</v>
       </c>
       <c r="K4" s="8" t="s">
@@ -1301,7 +1356,7 @@
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="2"/>
@@ -1309,28 +1364,28 @@
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T4" s="5"/>
-      <c r="U4" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="V4" s="16"/>
+      <c r="U4" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="V4" s="18"/>
       <c r="W4" s="8">
         <v>44.0</v>
       </c>
       <c r="X4" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AB4" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC4" s="9">
+        <v>70</v>
+      </c>
+      <c r="AC4" s="10">
         <v>10.0</v>
       </c>
       <c r="AD4" s="5"/>
@@ -1340,23 +1395,21 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="13"/>
+      <c r="C5" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="2" t="s">
         <v>74</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>75</v>
@@ -1368,7 +1421,7 @@
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>77</v>
@@ -1379,16 +1432,14 @@
       <c r="P5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="10">
         <v>55.0</v>
       </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
-      <c r="U5" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="V5" s="17"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
       <c r="W5" s="8">
         <v>55.0</v>
       </c>
@@ -1414,59 +1465,63 @@
       <c r="AG5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21" t="s">
+      <c r="C6" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="21" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6" s="21" t="s">
+      <c r="M6" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="P6" s="23" t="s">
+      <c r="P6" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="Q6" s="23">
+      <c r="Q6" s="25">
         <v>55.0</v>
       </c>
-      <c r="U6" s="18"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="22">
+      <c r="U6" s="20"/>
+      <c r="V6" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="W6" s="24">
         <v>55.0</v>
       </c>
-      <c r="X6" s="22" t="s">
+      <c r="X6" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="Z6" s="23" t="s">
+      <c r="Z6" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="AA6" s="22" t="s">
+      <c r="AA6" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="AB6" s="22">
+      <c r="AB6" s="24">
         <v>76.0</v>
       </c>
-      <c r="AC6" s="22">
+      <c r="AC6" s="24">
         <v>19.0</v>
       </c>
       <c r="AD6" s="5"/>
@@ -1475,47 +1530,47 @@
       <c r="AG6" s="5"/>
     </row>
     <row r="7">
-      <c r="A7" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="24" t="s">
+      <c r="A7" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="F7" s="22" t="s">
+      <c r="B7" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="K7" s="25" t="s">
+      <c r="C7" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="L7" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="O7" s="24" t="s">
+      <c r="D7" s="23"/>
+      <c r="F7" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="R7" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="S7" s="22" t="s">
+      <c r="Q7" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="U7" s="22" t="s">
+      <c r="R7" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="V7" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC7" s="22">
+      <c r="S7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="U7" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="V7" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC7" s="24">
         <v>2.0</v>
       </c>
       <c r="AD7" s="5"/>
@@ -1524,99 +1579,99 @@
       <c r="AG7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="F8" s="22" t="s">
+      <c r="A8" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="K8" s="22" t="s">
+      <c r="C8" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="L8" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="O8" s="22" t="s">
+      <c r="D8" s="23"/>
+      <c r="F8" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="Q8" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="R8" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="S8" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="U8" s="21"/>
-      <c r="V8" s="22" t="s">
+      <c r="Q8" s="20" t="s">
         <v>95</v>
       </c>
+      <c r="R8" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="S8" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="U8" s="23"/>
+      <c r="V8" s="24" t="s">
+        <v>97</v>
+      </c>
       <c r="AD8" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="22">
+      <c r="A9" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="24">
         <v>150.0</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" s="27" t="s">
+      <c r="D9" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="F9" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="G9" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="I9" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="J9" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="O9" s="21" t="s">
+      <c r="K9" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="P9" s="22">
+      <c r="P9" s="24">
         <v>100.0</v>
       </c>
       <c r="S9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="U9" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="W9" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="X9" s="27" t="s">
-        <v>106</v>
+      <c r="U9" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="W9" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="X9" s="29" t="s">
+        <v>108</v>
       </c>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
@@ -1624,47 +1679,47 @@
       <c r="AG9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="22" t="s">
+      <c r="A10" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="F10" s="22" t="s">
+      <c r="B10" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="C10" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="D10" s="31"/>
+      <c r="F10" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="H10" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="K10" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="L10" s="22" t="s">
+      <c r="I10" s="30" t="s">
         <v>114</v>
       </c>
+      <c r="J10" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>112</v>
+      </c>
       <c r="O10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q10" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="R10" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="U10" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="AC10" s="22">
+      <c r="R10" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="U10" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC10" s="24">
         <v>5.0</v>
       </c>
       <c r="AD10" s="5"/>
@@ -1673,44 +1728,47 @@
       <c r="AG10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="24">
+        <v>26.0</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="F11" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="R11" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="22">
-        <v>26.0</v>
-      </c>
-      <c r="D11" s="29"/>
-      <c r="H11" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="L11" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q11" s="22" t="s">
+      <c r="U11" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="R11" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="U11" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC11" s="22">
+      <c r="AC11" s="24">
         <v>5.0</v>
       </c>
       <c r="AD11" s="5"/>
@@ -1719,30 +1777,30 @@
       <c r="AG11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="22">
+      <c r="A12" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="24">
         <v>44.0</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="F12" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="K12" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q12" s="22">
+      <c r="D12" s="23"/>
+      <c r="F12" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q12" s="24">
         <v>22.0</v>
       </c>
-      <c r="U12" s="30" t="s">
-        <v>123</v>
+      <c r="U12" s="32" t="s">
+        <v>125</v>
       </c>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
@@ -1750,19 +1808,110 @@
       <c r="AG12" s="5"/>
     </row>
     <row r="13">
+      <c r="A13" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="24">
+        <v>20.0</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q13" s="24">
+        <v>34.0</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="V13" s="24" t="s">
+        <v>129</v>
+      </c>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
     </row>
     <row r="14">
-      <c r="M14" s="31"/>
+      <c r="A14" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="24">
+        <v>33.0</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="M14" s="33"/>
+      <c r="Q14" s="24">
+        <v>44.0</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="V14" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
     </row>
     <row r="15">
+      <c r="A15" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="24">
+        <v>33.0</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="M15" s="33"/>
+      <c r="Q15" s="24">
+        <v>33.0</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="V15" s="24" t="s">
+        <v>132</v>
+      </c>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
@@ -7680,11 +7829,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="U2"/>
-    <hyperlink r:id="rId2" ref="U3"/>
-    <hyperlink r:id="rId3" ref="U4"/>
-    <hyperlink r:id="rId4" ref="D5"/>
-    <hyperlink r:id="rId5" ref="U5"/>
+    <hyperlink r:id="rId1" ref="D2"/>
+    <hyperlink r:id="rId2" ref="U2"/>
+    <hyperlink r:id="rId3" ref="U3"/>
+    <hyperlink r:id="rId4" ref="D4"/>
+    <hyperlink r:id="rId5" ref="U4"/>
     <hyperlink r:id="rId6" ref="D9"/>
     <hyperlink r:id="rId7" ref="U9"/>
     <hyperlink r:id="rId8" ref="U10"/>
@@ -7737,10 +7886,10 @@
         <v>9</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>10</v>
@@ -7764,12 +7913,12 @@
         <v>16</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="32" t="s">
+      <c r="U1" s="34" t="s">
         <v>19</v>
       </c>
       <c r="V1" s="5" t="s">
@@ -7799,168 +7948,168 @@
       <c r="AD1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF1" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG1" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH1" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI1" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ1" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="AK1" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL1" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM1" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN1" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="AO1" s="22" t="s">
+      <c r="AE1" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="AP1" s="34" t="s">
+      <c r="AF1" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="AQ1" s="34" t="s">
+      <c r="AG1" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="AR1" s="34" t="s">
+      <c r="AH1" s="24" t="s">
         <v>140</v>
       </c>
+      <c r="AI1" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ1" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK1" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL1" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM1" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN1" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO1" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP1" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ1" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="AR1" s="36" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="R2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="C2" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="U2" s="22" t="s">
+      <c r="E2" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="W2" s="22" t="s">
+      <c r="F2" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="X2" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y2" s="22" t="s">
+      <c r="G2" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="Z2" s="22" t="s">
+      <c r="H2" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="AA2" s="22" t="s">
+      <c r="I2" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="AB2" s="22" t="s">
+      <c r="J2" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="AE2" s="22" t="s">
+      <c r="K2" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="AF2" s="22" t="s">
+      <c r="R2" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="AG2" s="22" t="s">
+      <c r="S2" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="AH2" s="22" t="s">
+      <c r="T2" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="AI2" s="22" t="s">
+      <c r="U2" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="AJ2" s="35" t="s">
+      <c r="W2" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="AK2" s="36" t="s">
+      <c r="X2" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="AL2" s="22" t="s">
+      <c r="Y2" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="AM2" s="22" t="s">
+      <c r="Z2" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="AN2" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="AO2" s="22" t="s">
+      <c r="AA2" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="AP2" s="22" t="s">
+      <c r="AB2" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="AQ2" s="22" t="s">
+      <c r="AE2" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="AR2" s="22" t="s">
+      <c r="AF2" s="24" t="s">
         <v>172</v>
       </c>
+      <c r="AG2" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH2" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI2" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ2" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK2" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL2" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM2" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN2" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="AO2" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP2" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ2" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR2" s="24" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="3">
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="33"/>
-      <c r="AO3" s="33"/>
-      <c r="AP3" s="33"/>
-      <c r="AQ3" s="33"/>
-      <c r="AR3" s="33"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="35"/>
+      <c r="AP3" s="35"/>
+      <c r="AQ3" s="35"/>
+      <c r="AR3" s="35"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/emarket/samples/reference-tables/Price.xlsx
+++ b/emarket/samples/reference-tables/Price.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="194">
   <si>
     <t>id</t>
   </si>
@@ -119,10 +119,10 @@
     <t>Programming books</t>
   </si>
   <si>
-    <t>JavaScript is the programming language of the web and is used by more software developers today than any other programming language.</t>
-  </si>
-  <si>
-    <t>JavaScript is the programming language of the web and is used by more software developers today than any other programming language. For nearly 25 years this best seller has been the go-to guide for JavaScript programmers. The seventh edition is fully updated to cover the 2020 version of JavaScript, and new chapters cover classes, modules, iterators, generators, Promises, async/await, and metaprogramming. You’ll find illuminating and engaging example code throughout. This book is for programmers who want to learn JavaScript and for web developers who want to take their understanding and mastery to the next level. It begins by explaining the JavaScript language itself, in detail, from the bottom up. It then builds on that foundation to cover the web platform and Node.js.</t>
+    <t>“Digital Horizons” is an engaging exploration of the ever-evolving landscape of technology and its impact on our lives.</t>
+  </si>
+  <si>
+    <t>“Digital Horizons” is an engaging exploration of the ever-evolving landscape of technology and its impact on our lives. Through vivid storytelling, the book delves into topics such as artificial intelligence, cybersecurity, virtual reality, and the future of digital innovation.</t>
   </si>
   <si>
     <t>fdfdfdfdfdfdfd</t>
@@ -206,6 +206,9 @@
     <t>3</t>
   </si>
   <si>
+    <t>Cook</t>
+  </si>
+  <si>
     <t>25.45</t>
   </si>
   <si>
@@ -215,7 +218,7 @@
     <t>Cook book</t>
   </si>
   <si>
-    <t>ghgg</t>
+    <t>In this book, he dispels the myth that vegan food is exotic or lacks flavor.</t>
   </si>
   <si>
     <t>yu</t>
@@ -230,12 +233,87 @@
     <t>4</t>
   </si>
   <si>
+    <t>David Flanagan2</t>
+  </si>
+  <si>
+    <t>25.46</t>
+  </si>
+  <si>
+    <t>bookreact.jpg</t>
+  </si>
+  <si>
+    <t>React programming books</t>
+  </si>
+  <si>
+    <t>This practical guide takes you on a journey to master React.js.</t>
+  </si>
+  <si>
+    <t>You’ll build an attractive app (Hacker News React app) while learning ES6, internal state management, and other key React concepts.</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>40.55</t>
+  </si>
+  <si>
+    <t>bookreact.jpg,bookreact2.jpg</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>dfs</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Lenovo</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczM9_Mn72dmw1Z1KUMfz7qK8qwxV0KXKzzBmn-WQtSvQFWCRyE5t3wwkR5Of7IKgxlaeRjuxr6FYVcN8-UkXcZnpppy99yXbU7lcN5P0R8Mgldd36g=w2400</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>The XYZ Tablet is a sleek and versatile device designed for productivity, entertainment, and on-the-go convenience. With its powerful hardware and intuitive software, it seamlessly bridges the gap between a laptop and a smartphone.</t>
+  </si>
+  <si>
+    <t>10.1-inch Full HD display.</t>
+  </si>
+  <si>
+    <t>quad-core processor</t>
+  </si>
+  <si>
+    <t>gadgets</t>
+  </si>
+  <si>
+    <t>tablet</t>
+  </si>
+  <si>
+    <t>built-in 64GB storage</t>
+  </si>
+  <si>
+    <t>8MP rear camera</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>The “Flavors of the World” cookbook is a culinary journey that celebrates diverse cuisines from different cultures. Whether you’re an aspiring chef, a seasoned home cook, or simply someone who enjoys good food, this cookbook offers a delightful collection of recipes and culinary inspiration.</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>David Flanagan</t>
   </si>
   <si>
-    <t>25.46</t>
-  </si>
-  <si>
     <t>jhhjh</t>
   </si>
   <si>
@@ -248,31 +326,43 @@
     <t>0</t>
   </si>
   <si>
-    <t>sale</t>
-  </si>
-  <si>
     <t>20.55</t>
   </si>
   <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>dfs</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>David Flanagan2</t>
-  </si>
-  <si>
-    <t>bookreact.jpg</t>
-  </si>
-  <si>
-    <t>bookreact.jpg,bookreact2.jpg</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>MegaPizza</t>
+  </si>
+  <si>
+    <t>15.56</t>
+  </si>
+  <si>
+    <t>pizza</t>
+  </si>
+  <si>
+    <t>Pizza is a beloved dish that originated in Italy but has become popular worldwide. It consists of a thin or thick crust topped with various ingredients, typically including tomato sauce, cheese, and a variety of toppings. Whether enjoyed as a quick snack, a family meal, or at a social gathering, pizza is a universal favorite.</t>
+  </si>
+  <si>
+    <t>14 inches</t>
+  </si>
+  <si>
+    <t>8:14 inches,9:18 inches</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMj4n3NL1Dwqe-5XcUqTf4h1N3gYnjT3hqwVxEZgLsUwqA6JAw-RWRhknZQzmH27oyDHoyLAf4cY-AEiJWaRlg1AH_3Z-QIrlK9Y0xZxwDoyb6Q4Q=w2400</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>18 inches</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>Goozi</t>
@@ -287,133 +377,70 @@
     <t>shoes</t>
   </si>
   <si>
+    <t>10:34,11:36</t>
+  </si>
+  <si>
+    <t>cwomenshoesred.jpg,cwomenshoesred2.jpg</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>cwomenshoesred2.jpg</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>children's shoes</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOndj66CgQrW-RXbSRf7VgJe2A_Sae7eCqxWlSZEBFtpUpaQZScYgpf-SwIA0vlEgs4FtP2etmyHXQOYQpsERWRlEbi7DKL8vC9AvU5NEYzFA0iIg=w2400</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>sneakerswhite.jpg</t>
+  </si>
+  <si>
+    <t>sport shoes</t>
+  </si>
+  <si>
+    <t>13:white,14;15:black</t>
+  </si>
+  <si>
+    <t>sneakerswhite.jpg,sneakerswhite2.jpg</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>14:44,15:33</t>
+  </si>
+  <si>
+    <t>sneakersblack.jpg</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>34</t>
-  </si>
-  <si>
-    <t>6:34,7:36</t>
-  </si>
-  <si>
-    <t>cwomenshoesred.jpg,cwomenshoesred2.jpg</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>cwomenshoesred2.jpg</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Lenovo</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczM9_Mn72dmw1Z1KUMfz7qK8qwxV0KXKzzBmn-WQtSvQFWCRyE5t3wwkR5Of7IKgxlaeRjuxr6FYVcN8-UkXcZnpppy99yXbU7lcN5P0R8Mgldd36g=w2400</t>
-  </si>
-  <si>
-    <t>Tablet</t>
-  </si>
-  <si>
-    <t>The XYZ Tablet is a sleek and versatile device designed for productivity, entertainment, and on-the-go convenience. With its powerful hardware and intuitive software, it seamlessly bridges the gap between a laptop and a smartphone.</t>
-  </si>
-  <si>
-    <t>10.1-inch Full HD display.</t>
-  </si>
-  <si>
-    <t>quad-core processor</t>
-  </si>
-  <si>
-    <t>gadgets</t>
-  </si>
-  <si>
-    <t>tablet</t>
-  </si>
-  <si>
-    <t>built-in 64GB storage</t>
-  </si>
-  <si>
-    <t>8MP rear camera</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>MegaPizza</t>
-  </si>
-  <si>
-    <t>15.56</t>
-  </si>
-  <si>
-    <t>pizza</t>
-  </si>
-  <si>
-    <t>Pizza is a beloved dish that originated in Italy but has become popular worldwide. It consists of a thin or thick crust topped with various ingredients, typically including tomato sauce, cheese, and a variety of toppings. Whether enjoyed as a quick snack, a family meal, or at a social gathering, pizza is a universal favorite.</t>
-  </si>
-  <si>
-    <t>omato-based sauce</t>
-  </si>
-  <si>
-    <t>Mozzarella</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>14 inches</t>
-  </si>
-  <si>
-    <t>9:14 inches,10:18 inches</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczMj4n3NL1Dwqe-5XcUqTf4h1N3gYnjT3hqwVxEZgLsUwqA6JAw-RWRhknZQzmH27oyDHoyLAf4cY-AEiJWaRlg1AH_3Z-QIrlK9Y0xZxwDoyb6Q4Q=w2400</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>18 inches</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Shoes</t>
-  </si>
-  <si>
-    <t>children's shoes</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczOndj66CgQrW-RXbSRf7VgJe2A_Sae7eCqxWlSZEBFtpUpaQZScYgpf-SwIA0vlEgs4FtP2etmyHXQOYQpsERWRlEbi7DKL8vC9AvU5NEYzFA0iIg=w2400</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>sneakerswhite.jpg</t>
-  </si>
-  <si>
-    <t>12:white,13:black</t>
-  </si>
-  <si>
-    <t>sneakerswhite.jpg,sneakerswhite2.jpg</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>13:44,14:33</t>
-  </si>
-  <si>
-    <t>sneakersblack.jpg</t>
-  </si>
-  <si>
-    <t>14</t>
   </si>
   <si>
     <t>#tag1</t>
@@ -550,16 +577,16 @@
     <t>https://script.google.com/macros/s/AKfycbybvuGbsK7-2Wa8PFYurOjt7R6a4wq3NnzqAcMn6tLLGBIxpa6o_KUkVLXX5SDkG7P4ng/exec</t>
   </si>
   <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczPChFDERXvltJPpeHnmyLCM7ni-6GzZ4BSaQiegY2sZ8zf7_B__Bnw6afEjlpT4X13fjKBorMOa5waAYhMcIqPrYfGxzdk25OlpotzRM7jNj_1MKA=w2400</t>
-  </si>
-  <si>
-    <t>de</t>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPmmHrPSacthsrDnF5i2bUO-o6aYv44aJjWOQm3NejU_5n5HsCs9R3SgGj19nFwc9LT16AnAfMPrx_ac5uwckY9JWIu4MNkByh49GBx6UACvxjKXQ=w2400</t>
+  </si>
+  <si>
+    <t>en</t>
   </si>
   <si>
     <t>additional price list</t>
   </si>
   <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczPFFvbh20Vo8zTeQ3hl58qwrn6Td63zWcJMfMoG6HnT-Ciu8L8Sgxp3AJsG_1oxzyooSFmQoBmZwNCwZ1H8xu7mdmg--XflKFOoaEOD-OiG0aUUGA=w2400</t>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOrXTQJIdXywfavJcWIVS_xHYNp8y-SdmvwKlSIBFNjx_SfTKaDU4Ukyno_d3HcbZw7Wiz1ccjvPFLoh02ZuiIacPPh0VF0TwzxmRKWGc2-KAtAuA=w2400</t>
   </si>
   <si>
     <t>Sun</t>
@@ -578,7 +605,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -605,8 +632,12 @@
     </font>
     <font>
       <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="9.0"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="&quot;Google Sans&quot;"/>
     </font>
     <font>
@@ -614,11 +645,6 @@
       <sz val="9.0"/>
       <color rgb="FF1155CC"/>
       <name val="&quot;Google Sans&quot;"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -656,10 +682,6 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
     </font>
     <font>
       <color rgb="FFFFF2CC"/>
@@ -761,27 +783,33 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -798,10 +826,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -820,22 +844,22 @@
     <xf borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1159,13 +1183,13 @@
       <c r="AG1" s="5"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -1175,13 +1199,13 @@
       <c r="F2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="8" t="s">
         <v>37</v>
       </c>
       <c r="J2" s="10">
@@ -1190,37 +1214,37 @@
       <c r="K2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="8" t="s">
         <v>38</v>
       </c>
       <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="4" t="s">
         <v>40</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="10">
         <v>36.0</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>44</v>
       </c>
       <c r="V2" s="11"/>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="8" t="s">
         <v>46</v>
       </c>
       <c r="Y2" s="10">
@@ -1233,7 +1257,7 @@
       <c r="AB2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AC2" s="12">
+      <c r="AC2" s="10">
         <v>3.0</v>
       </c>
       <c r="AD2" s="5"/>
@@ -1242,70 +1266,70 @@
       <c r="AG2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="2"/>
       <c r="F3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="10" t="s">
         <v>54</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="8" t="s">
         <v>55</v>
       </c>
       <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="4" t="s">
         <v>56</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="10">
         <v>46.0</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="U3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="V3" s="14"/>
-      <c r="W3" s="5" t="s">
+      <c r="V3" s="11"/>
+      <c r="W3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="X3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="Y3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="Z3" s="8" t="s">
         <v>45</v>
       </c>
       <c r="AA3" s="8">
@@ -1314,8 +1338,8 @@
       <c r="AB3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5" t="s">
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="8" t="s">
         <v>62</v>
       </c>
       <c r="AE3" s="5"/>
@@ -1323,67 +1347,63 @@
       <c r="AG3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="15" t="s">
         <v>64</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="16"/>
+        <v>66</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="10">
-        <v>88888.0</v>
-      </c>
+      <c r="G4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="13"/>
       <c r="K4" s="8" t="s">
         <v>38</v>
       </c>
       <c r="L4" s="5"/>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="5"/>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
+      <c r="Q4" s="13"/>
       <c r="R4" s="5"/>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="8" t="s">
         <v>57</v>
       </c>
       <c r="T4" s="5"/>
-      <c r="U4" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="V4" s="18"/>
+      <c r="U4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V4" s="11"/>
       <c r="W4" s="8">
         <v>44.0</v>
       </c>
       <c r="X4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y4" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="Y4" s="13"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB4" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC4" s="10">
         <v>10.0</v>
@@ -1394,43 +1414,43 @@
       <c r="AG4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>74</v>
       </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="G5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="8" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="L5" s="5"/>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="P5" s="5" t="s">
+      <c r="N5" s="2"/>
+      <c r="O5" s="4" t="s">
         <v>79</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="Q5" s="10">
         <v>55.0</v>
@@ -1438,25 +1458,27 @@
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="14" t="s">
+        <v>81</v>
+      </c>
       <c r="W5" s="8">
         <v>55.0</v>
       </c>
       <c r="X5" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="8" t="s">
         <v>46</v>
       </c>
       <c r="AA5" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AB5" s="8">
         <v>76.0</v>
       </c>
-      <c r="AC5" s="8">
+      <c r="AC5" s="10">
         <v>19.0</v>
       </c>
       <c r="AD5" s="5"/>
@@ -1465,213 +1487,263 @@
       <c r="AG5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="22" t="s">
+      <c r="A6" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="B6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="4" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="P6" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="Q6" s="25">
-        <v>55.0</v>
-      </c>
-      <c r="U6" s="20"/>
-      <c r="V6" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="W6" s="24">
-        <v>55.0</v>
-      </c>
-      <c r="X6" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z6" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA6" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB6" s="24">
-        <v>76.0</v>
-      </c>
-      <c r="AC6" s="24">
-        <v>19.0</v>
-      </c>
+      <c r="P6" s="8">
+        <v>200.0</v>
+      </c>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" s="5"/>
+      <c r="U6" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="V6" s="11"/>
+      <c r="W6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="10"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
     </row>
     <row r="7">
-      <c r="A7" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="F7" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="O7" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="R7" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="S7" s="5" t="s">
+      <c r="A7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="U7" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="V7" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC7" s="24">
-        <v>2.0</v>
-      </c>
+      <c r="T7" s="5"/>
+      <c r="U7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V7" s="11"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC7" s="10"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="F8" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="O8" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q8" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="R8" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="S8" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="U8" s="23"/>
-      <c r="V8" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD8" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="A8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>55.0</v>
+      </c>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="8">
+        <v>55.0</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB8" s="8">
+        <v>76.0</v>
+      </c>
+      <c r="AC8" s="10">
+        <v>19.0</v>
+      </c>
+      <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="24">
-        <v>150.0</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="I9" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="K9" s="29" t="s">
+      <c r="A9" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="B9" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="O9" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="P9" s="24">
-        <v>100.0</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="U9" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="W9" s="24" t="s">
+      <c r="C9" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="X9" s="29" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="4" t="s">
         <v>108</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="J9" s="10">
+        <v>300.0</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="V9" s="11"/>
+      <c r="W9" s="8">
+        <v>2000.0</v>
+      </c>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="10">
+        <v>5.0</v>
       </c>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
@@ -1679,47 +1751,63 @@
       <c r="AG9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="24" t="s">
+      <c r="I10" s="8">
+        <v>18.0</v>
+      </c>
+      <c r="J10" s="10">
+        <v>500.0</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="R10" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="F10" s="24" t="s">
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H10" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="R10" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U10" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC10" s="24">
+      <c r="V10" s="11"/>
+      <c r="W10" s="8">
+        <v>2500.0</v>
+      </c>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="10">
         <v>5.0</v>
       </c>
       <c r="AD10" s="5"/>
@@ -1728,48 +1816,62 @@
       <c r="AG10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="24">
-        <v>26.0</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="F11" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="L11" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q11" s="24" t="s">
+      <c r="L11" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="10">
+        <v>34.0</v>
+      </c>
+      <c r="R11" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="R11" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="U11" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC11" s="24">
-        <v>5.0</v>
+      <c r="S11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="T11" s="5"/>
+      <c r="U11" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="V11" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="10">
+        <v>2.0</v>
       </c>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
@@ -1777,249 +1879,655 @@
       <c r="AG11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="24">
-        <v>44.0</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="F12" s="24" t="s">
+      <c r="B12" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="10">
+        <v>36.0</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="S12" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="K12" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="L12" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q12" s="24">
-        <v>22.0</v>
-      </c>
-      <c r="U12" s="32" t="s">
+      <c r="T12" s="5"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="AD12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
     </row>
     <row r="13">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="24">
-        <v>20.0</v>
-      </c>
-      <c r="E13" s="24" t="s">
+      <c r="B13" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F13" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="K13" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q13" s="24">
-        <v>34.0</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="T13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="V13" s="24" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="4" t="s">
         <v>129</v>
       </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="10">
+        <v>22.0</v>
+      </c>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="V13" s="11"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="10"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
     </row>
     <row r="14">
-      <c r="A14" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="24">
-        <v>33.0</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="K14" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="M14" s="33"/>
-      <c r="Q14" s="24">
-        <v>44.0</v>
-      </c>
-      <c r="R14" s="8" t="s">
+      <c r="A14" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S14" s="5" t="s">
-        <v>42</v>
+      <c r="B14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="10">
+        <v>34.0</v>
+      </c>
+      <c r="R14" s="5"/>
+      <c r="S14" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="T14" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="V14" s="24" t="s">
-        <v>132</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="U14" s="12"/>
+      <c r="V14" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="10"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
     </row>
     <row r="15">
-      <c r="A15" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="24">
-        <v>33.0</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="K15" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="M15" s="33"/>
-      <c r="Q15" s="24">
-        <v>33.0</v>
+      <c r="A15" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="10">
+        <v>44.0</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="S15" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="S15" s="8" t="s">
         <v>42</v>
       </c>
       <c r="T15" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="V15" s="24" t="s">
-        <v>132</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="U15" s="12"/>
+      <c r="V15" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="10"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
     </row>
     <row r="16">
+      <c r="A16" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="10">
+        <v>33.0</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="U16" s="12"/>
+      <c r="V16" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="10"/>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
     </row>
     <row r="17">
+      <c r="A17" s="2"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="10"/>
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
     </row>
     <row r="18">
+      <c r="A18" s="2"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="10"/>
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
     </row>
     <row r="19">
+      <c r="A19" s="2"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="10"/>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
       <c r="AG19" s="5"/>
     </row>
     <row r="20">
+      <c r="A20" s="2"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="10"/>
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
       <c r="AG20" s="5"/>
     </row>
     <row r="21">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
       <c r="AG21" s="5"/>
     </row>
     <row r="22">
+      <c r="A22" s="2"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="13"/>
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
       <c r="AG22" s="5"/>
     </row>
     <row r="23">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
       <c r="AG23" s="5"/>
     </row>
     <row r="24">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="24"/>
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
       <c r="AG24" s="5"/>
     </row>
     <row r="25">
+      <c r="A25" s="22"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="25"/>
+      <c r="K25" s="27"/>
+      <c r="O25" s="26"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="5"/>
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
       <c r="AG25" s="5"/>
     </row>
     <row r="26">
+      <c r="A26" s="22"/>
+      <c r="D26" s="25"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="U26" s="25"/>
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
       <c r="AG26" s="5"/>
     </row>
     <row r="27">
+      <c r="A27" s="22"/>
+      <c r="D27" s="28"/>
+      <c r="G27" s="29"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="29"/>
+      <c r="O27" s="25"/>
+      <c r="S27" s="5"/>
+      <c r="U27" s="28"/>
+      <c r="X27" s="29"/>
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
       <c r="AG27" s="5"/>
     </row>
     <row r="28">
+      <c r="A28" s="22"/>
+      <c r="D28" s="31"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="29"/>
+      <c r="O28" s="2"/>
+      <c r="U28" s="31"/>
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
       <c r="AG28" s="5"/>
     </row>
     <row r="29">
+      <c r="A29" s="22"/>
+      <c r="D29" s="31"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="29"/>
+      <c r="O29" s="2"/>
+      <c r="U29" s="31"/>
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
       <c r="AG29" s="5"/>
     </row>
     <row r="30">
+      <c r="A30" s="22"/>
+      <c r="D30" s="25"/>
+      <c r="K30" s="27"/>
+      <c r="U30" s="31"/>
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
       <c r="AG30" s="5"/>
     </row>
     <row r="31">
+      <c r="A31" s="22"/>
+      <c r="F31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="8"/>
       <c r="AD31" s="5"/>
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
       <c r="AG31" s="5"/>
     </row>
     <row r="32">
+      <c r="A32" s="22"/>
+      <c r="F32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="M32" s="32"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="8"/>
       <c r="AD32" s="5"/>
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
       <c r="AG32" s="5"/>
     </row>
     <row r="33">
+      <c r="A33" s="22"/>
+      <c r="F33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="M33" s="32"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="8"/>
       <c r="AD33" s="5"/>
       <c r="AE33" s="5"/>
       <c r="AF33" s="5"/>
@@ -7826,6 +8334,114 @@
       <c r="AE1000" s="5"/>
       <c r="AF1000" s="5"/>
       <c r="AG1000" s="5"/>
+    </row>
+    <row r="1001">
+      <c r="AD1001" s="5"/>
+      <c r="AE1001" s="5"/>
+      <c r="AF1001" s="5"/>
+      <c r="AG1001" s="5"/>
+    </row>
+    <row r="1002">
+      <c r="AD1002" s="5"/>
+      <c r="AE1002" s="5"/>
+      <c r="AF1002" s="5"/>
+      <c r="AG1002" s="5"/>
+    </row>
+    <row r="1003">
+      <c r="AD1003" s="5"/>
+      <c r="AE1003" s="5"/>
+      <c r="AF1003" s="5"/>
+      <c r="AG1003" s="5"/>
+    </row>
+    <row r="1004">
+      <c r="AD1004" s="5"/>
+      <c r="AE1004" s="5"/>
+      <c r="AF1004" s="5"/>
+      <c r="AG1004" s="5"/>
+    </row>
+    <row r="1005">
+      <c r="AD1005" s="5"/>
+      <c r="AE1005" s="5"/>
+      <c r="AF1005" s="5"/>
+      <c r="AG1005" s="5"/>
+    </row>
+    <row r="1006">
+      <c r="AD1006" s="5"/>
+      <c r="AE1006" s="5"/>
+      <c r="AF1006" s="5"/>
+      <c r="AG1006" s="5"/>
+    </row>
+    <row r="1007">
+      <c r="AD1007" s="5"/>
+      <c r="AE1007" s="5"/>
+      <c r="AF1007" s="5"/>
+      <c r="AG1007" s="5"/>
+    </row>
+    <row r="1008">
+      <c r="AD1008" s="5"/>
+      <c r="AE1008" s="5"/>
+      <c r="AF1008" s="5"/>
+      <c r="AG1008" s="5"/>
+    </row>
+    <row r="1009">
+      <c r="AD1009" s="5"/>
+      <c r="AE1009" s="5"/>
+      <c r="AF1009" s="5"/>
+      <c r="AG1009" s="5"/>
+    </row>
+    <row r="1010">
+      <c r="AD1010" s="5"/>
+      <c r="AE1010" s="5"/>
+      <c r="AF1010" s="5"/>
+      <c r="AG1010" s="5"/>
+    </row>
+    <row r="1011">
+      <c r="AD1011" s="5"/>
+      <c r="AE1011" s="5"/>
+      <c r="AF1011" s="5"/>
+      <c r="AG1011" s="5"/>
+    </row>
+    <row r="1012">
+      <c r="AD1012" s="5"/>
+      <c r="AE1012" s="5"/>
+      <c r="AF1012" s="5"/>
+      <c r="AG1012" s="5"/>
+    </row>
+    <row r="1013">
+      <c r="AD1013" s="5"/>
+      <c r="AE1013" s="5"/>
+      <c r="AF1013" s="5"/>
+      <c r="AG1013" s="5"/>
+    </row>
+    <row r="1014">
+      <c r="AD1014" s="5"/>
+      <c r="AE1014" s="5"/>
+      <c r="AF1014" s="5"/>
+      <c r="AG1014" s="5"/>
+    </row>
+    <row r="1015">
+      <c r="AD1015" s="5"/>
+      <c r="AE1015" s="5"/>
+      <c r="AF1015" s="5"/>
+      <c r="AG1015" s="5"/>
+    </row>
+    <row r="1016">
+      <c r="AD1016" s="5"/>
+      <c r="AE1016" s="5"/>
+      <c r="AF1016" s="5"/>
+      <c r="AG1016" s="5"/>
+    </row>
+    <row r="1017">
+      <c r="AD1017" s="5"/>
+      <c r="AE1017" s="5"/>
+      <c r="AF1017" s="5"/>
+      <c r="AG1017" s="5"/>
+    </row>
+    <row r="1018">
+      <c r="AD1018" s="5"/>
+      <c r="AE1018" s="5"/>
+      <c r="AF1018" s="5"/>
+      <c r="AG1018" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7834,13 +8450,15 @@
     <hyperlink r:id="rId3" ref="U3"/>
     <hyperlink r:id="rId4" ref="D4"/>
     <hyperlink r:id="rId5" ref="U4"/>
-    <hyperlink r:id="rId6" ref="D9"/>
-    <hyperlink r:id="rId7" ref="U9"/>
-    <hyperlink r:id="rId8" ref="U10"/>
-    <hyperlink r:id="rId9" ref="U11"/>
-    <hyperlink r:id="rId10" ref="U12"/>
+    <hyperlink r:id="rId6" ref="D6"/>
+    <hyperlink r:id="rId7" ref="U6"/>
+    <hyperlink r:id="rId8" ref="D7"/>
+    <hyperlink r:id="rId9" ref="U7"/>
+    <hyperlink r:id="rId10" ref="U9"/>
+    <hyperlink r:id="rId11" ref="U10"/>
+    <hyperlink r:id="rId12" ref="U13"/>
   </hyperlinks>
-  <drawing r:id="rId11"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -7886,10 +8504,10 @@
         <v>9</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>10</v>
@@ -7913,12 +8531,12 @@
         <v>16</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="33" t="s">
         <v>19</v>
       </c>
       <c r="V1" s="5" t="s">
@@ -7948,168 +8566,168 @@
       <c r="AD1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF1" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG1" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH1" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI1" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="AJ1" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK1" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL1" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM1" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN1" s="24" t="s">
+      <c r="AE1" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="AO1" s="24" t="s">
+      <c r="AF1" s="35" t="s">
         <v>147</v>
       </c>
+      <c r="AG1" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH1" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI1" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ1" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK1" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL1" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM1" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN1" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO1" s="35" t="s">
+        <v>156</v>
+      </c>
       <c r="AP1" s="36" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="AQ1" s="36" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="AR1" s="36" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="K2" s="24" t="s">
+      <c r="A2" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="B2" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="C2" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="E2" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="F2" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="G2" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="X2" s="24" t="s">
+      <c r="H2" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="Y2" s="24" t="s">
+      <c r="I2" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="Z2" s="24" t="s">
+      <c r="J2" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="AA2" s="24" t="s">
+      <c r="K2" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="AB2" s="24" t="s">
+      <c r="R2" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="AE2" s="24" t="s">
+      <c r="S2" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="AF2" s="24" t="s">
+      <c r="T2" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="AG2" s="24" t="s">
+      <c r="U2" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="AH2" s="24" t="s">
+      <c r="W2" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="AI2" s="24" t="s">
+      <c r="X2" s="35" t="s">
         <v>175</v>
       </c>
+      <c r="Y2" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z2" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA2" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB2" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE2" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF2" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG2" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH2" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI2" s="35" t="s">
+        <v>184</v>
+      </c>
       <c r="AJ2" s="37" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="AK2" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL2" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="AM2" s="24" t="s">
-        <v>179</v>
+        <v>186</v>
+      </c>
+      <c r="AL2" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM2" s="35" t="s">
+        <v>188</v>
       </c>
       <c r="AN2" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="AO2" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="AP2" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="AQ2" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="AR2" s="24" t="s">
-        <v>184</v>
+        <v>189</v>
+      </c>
+      <c r="AO2" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="AP2" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="AQ2" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR2" s="35" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="3">
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="35"/>
-      <c r="AG3" s="35"/>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="35"/>
-      <c r="AK3" s="35"/>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
-      <c r="AQ3" s="35"/>
-      <c r="AR3" s="35"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="34"/>
+      <c r="AJ3" s="34"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="34"/>
+      <c r="AO3" s="34"/>
+      <c r="AP3" s="34"/>
+      <c r="AQ3" s="34"/>
+      <c r="AR3" s="34"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/emarket/samples/reference-tables/Price.xlsx
+++ b/emarket/samples/reference-tables/Price.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="206">
   <si>
     <t>id</t>
   </si>
@@ -465,6 +465,24 @@
   </si>
   <si>
     <t>totalPrice</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>carticon</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>ava</t>
   </si>
   <si>
     <t>Urprice</t>
@@ -572,6 +590,24 @@
   </si>
   <si>
     <t>Итого:</t>
+  </si>
+  <si>
+    <t>Дом</t>
+  </si>
+  <si>
+    <t>Каталог</t>
+  </si>
+  <si>
+    <t>Корзина</t>
+  </si>
+  <si>
+    <t>Фильтр</t>
+  </si>
+  <si>
+    <t>Поиск</t>
+  </si>
+  <si>
+    <t>Пользователь</t>
   </si>
   <si>
     <t>https://script.google.com/macros/s/AKfycbybvuGbsK7-2Wa8PFYurOjt7R6a4wq3NnzqAcMn6tLLGBIxpa6o_KUkVLXX5SDkG7P4ng/exec</t>
@@ -8581,136 +8617,172 @@
       <c r="AI1" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="AJ1" s="35" t="s">
+      <c r="AJ1" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="AK1" s="35" t="s">
+      <c r="AK1" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="AL1" s="35" t="s">
+      <c r="AL1" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="AM1" s="35" t="s">
+      <c r="AM1" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="AN1" s="35" t="s">
+      <c r="AN1" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="AO1" s="35" t="s">
+      <c r="AO1" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="AP1" s="36" t="s">
+      <c r="AP1" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="AQ1" s="36" t="s">
+      <c r="AQ1" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="AR1" s="36" t="s">
+      <c r="AR1" s="35" t="s">
         <v>159</v>
+      </c>
+      <c r="AS1" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT1" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="AU1" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="AV1" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="AW1" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="AX1" s="36" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="R2" s="35" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="S2" s="35" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="T2" s="35" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="U2" s="35" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="W2" s="35" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="X2" s="35" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Y2" s="35" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="Z2" s="35" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AA2" s="35" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AB2" s="35" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AE2" s="35" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AF2" s="35" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AG2" s="35" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AH2" s="35" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AI2" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="AJ2" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="AK2" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="AL2" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="AM2" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="AN2" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="AO2" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="AP2" s="35" t="s">
+      <c r="AJ2" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="AQ2" s="35" t="s">
+      <c r="AK2" s="22" t="s">
         <v>192</v>
       </c>
+      <c r="AL2" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM2" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="AN2" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="AO2" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP2" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="AQ2" s="38" t="s">
+        <v>198</v>
+      </c>
       <c r="AR2" s="35" t="s">
-        <v>193</v>
+        <v>199</v>
+      </c>
+      <c r="AS2" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="AT2" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU2" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="AV2" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="AW2" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="AX2" s="35" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="3">
@@ -8728,12 +8800,18 @@
       <c r="AP3" s="34"/>
       <c r="AQ3" s="34"/>
       <c r="AR3" s="34"/>
+      <c r="AS3" s="34"/>
+      <c r="AT3" s="34"/>
+      <c r="AU3" s="34"/>
+      <c r="AV3" s="34"/>
+      <c r="AW3" s="34"/>
+      <c r="AX3" s="34"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="AJ2"/>
-    <hyperlink r:id="rId2" ref="AK2"/>
-    <hyperlink r:id="rId3" ref="AN2"/>
+    <hyperlink r:id="rId1" ref="AP2"/>
+    <hyperlink r:id="rId2" ref="AQ2"/>
+    <hyperlink r:id="rId3" ref="AT2"/>
   </hyperlinks>
   <drawing r:id="rId4"/>
 </worksheet>

--- a/emarket/samples/reference-tables/Price.xlsx
+++ b/emarket/samples/reference-tables/Price.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="217">
   <si>
     <t>id</t>
   </si>
@@ -510,6 +510,36 @@
   </si>
   <si>
     <t>publicKey2</t>
+  </si>
+  <si>
+    <t>fone</t>
+  </si>
+  <si>
+    <t>inst</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>telegram</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>tik</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>about</t>
   </si>
   <si>
     <t>Артикл</t>
@@ -636,12 +666,15 @@
   <si>
     <t>pj75JL1YODJNO5wl6OBJo6yuUWF4FCTBaVf5cm+wIDmEvZo8BWSKrjTWafGzM7rIAYVpSTWmN8IxJd+OxbPTzdIeGRe3RiXcTZg0kd03IYAA+whE1A4NoOFK+3pnoKH59wIDAQAB</t>
   </si>
+  <si>
+    <t>Good</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -725,6 +758,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF0000FF"/>
     </font>
@@ -787,7 +825,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -891,11 +929,14 @@
     <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -8662,127 +8703,171 @@
       <c r="AX1" s="36" t="s">
         <v>165</v>
       </c>
+      <c r="AY1" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="AZ1" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="BA1" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="BB1" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="BC1" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="BD1" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="BE1" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="BF1" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="BG1" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH1" s="37" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="35" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="R2" s="35" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="S2" s="35" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="T2" s="35" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="U2" s="35" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="W2" s="35" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="X2" s="35" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="Y2" s="35" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="Z2" s="35" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AA2" s="35" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="AB2" s="35" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="AE2" s="35" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="AF2" s="35" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="AG2" s="35" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="AH2" s="35" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="AI2" s="35" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AJ2" s="22" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="AK2" s="22" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="AL2" s="22" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="AM2" s="22" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="AN2" s="22" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="AO2" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="AP2" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="AQ2" s="38" t="s">
-        <v>198</v>
+        <v>206</v>
+      </c>
+      <c r="AP2" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="AQ2" s="39" t="s">
+        <v>208</v>
       </c>
       <c r="AR2" s="35" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="AS2" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="AT2" s="39" t="s">
-        <v>201</v>
+        <v>210</v>
+      </c>
+      <c r="AT2" s="40" t="s">
+        <v>211</v>
       </c>
       <c r="AU2" s="35" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="AV2" s="35" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="AW2" s="35" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="AX2" s="35" t="s">
-        <v>205</v>
+        <v>215</v>
+      </c>
+      <c r="AY2" s="35">
+        <v>3.2323232E7</v>
+      </c>
+      <c r="AZ2" s="35"/>
+      <c r="BA2" s="35"/>
+      <c r="BB2" s="35"/>
+      <c r="BC2" s="35"/>
+      <c r="BD2" s="35"/>
+      <c r="BE2" s="35"/>
+      <c r="BF2" s="35"/>
+      <c r="BG2" s="35"/>
+      <c r="BH2" s="35" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="3">
@@ -8806,6 +8891,16 @@
       <c r="AV3" s="34"/>
       <c r="AW3" s="34"/>
       <c r="AX3" s="34"/>
+      <c r="AY3" s="34"/>
+      <c r="AZ3" s="34"/>
+      <c r="BA3" s="34"/>
+      <c r="BB3" s="34"/>
+      <c r="BC3" s="34"/>
+      <c r="BD3" s="34"/>
+      <c r="BE3" s="34"/>
+      <c r="BF3" s="34"/>
+      <c r="BG3" s="34"/>
+      <c r="BH3" s="34"/>
     </row>
   </sheetData>
   <hyperlinks>
